--- a/main.xlsx
+++ b/main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Documents\GitHub\vkr_prod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD87F8C-5280-4B2F-B7CF-3F8672B13C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6224DAD1-FC49-4568-9387-E7FF1BD5C543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t xml:space="preserve">10.11.2025 </t>
+  </si>
+  <si>
+    <t>ФормаОбученияИП</t>
+  </si>
+  <si>
+    <t>очная</t>
+  </si>
+  <si>
+    <t>ОГРН</t>
+  </si>
+  <si>
+    <t>8721789217489247821</t>
   </si>
 </sst>
 </file>
@@ -717,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BJ1" sqref="BJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +748,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
     <col min="16" max="16" width="46.5703125" customWidth="1"/>
     <col min="17" max="17" width="23.140625" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
@@ -762,9 +775,11 @@
     <col min="58" max="58" width="18.28515625" customWidth="1"/>
     <col min="59" max="59" width="19.28515625" customWidth="1"/>
     <col min="60" max="60" width="24.7109375" customWidth="1"/>
+    <col min="61" max="61" width="18.42578125" customWidth="1"/>
+    <col min="62" max="62" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -945,8 +960,14 @@
       <c r="BH1" t="s">
         <v>110</v>
       </c>
+      <c r="BI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1126,6 +1147,12 @@
       </c>
       <c r="BH2" s="4" t="s">
         <v>111</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6224DAD1-FC49-4568-9387-E7FF1BD5C543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB6274-5EB3-4F5B-8EAF-7803345F4484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -373,13 +373,19 @@
   </si>
   <si>
     <t>8721789217489247821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направленность </t>
+  </si>
+  <si>
+    <t>Инженерия информационных и интеллектуальных систем</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +407,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -424,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -447,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -729,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ2"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,9 +793,10 @@
     <col min="60" max="60" width="24.7109375" customWidth="1"/>
     <col min="61" max="61" width="18.42578125" customWidth="1"/>
     <col min="62" max="62" width="30.140625" customWidth="1"/>
+    <col min="63" max="63" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="BJ1" t="s">
         <v>114</v>
       </c>
+      <c r="BK1" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1142,7 @@
         <v>2025</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>98</v>
@@ -1153,6 +1173,9 @@
       </c>
       <c r="BJ2" s="4" t="s">
         <v>115</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB6274-5EB3-4F5B-8EAF-7803345F4484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA509563-58EA-44DA-A0FF-2682B58EFBC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA509563-58EA-44DA-A0FF-2682B58EFBC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD7373F-55B2-49F4-80C9-34242670FFE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t>Инженерия информационных и интеллектуальных систем</t>
+  </si>
+  <si>
+    <t>ЗавКафДП</t>
+  </si>
+  <si>
+    <t>Петрову Петру Петровичу</t>
+  </si>
+  <si>
+    <t>Информационных систем</t>
+  </si>
+  <si>
+    <t>темаВКР</t>
+  </si>
+  <si>
+    <t>Разработка чат-бота для справочной службы вуза</t>
   </si>
 </sst>
 </file>
@@ -437,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -463,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BQ2" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,9 +812,12 @@
     <col min="61" max="61" width="18.42578125" customWidth="1"/>
     <col min="62" max="62" width="30.140625" customWidth="1"/>
     <col min="63" max="63" width="27.5703125" customWidth="1"/>
+    <col min="64" max="64" width="26.85546875" customWidth="1"/>
+    <col min="65" max="65" width="18.5703125" customWidth="1"/>
+    <col min="66" max="66" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1007,17 @@
       <c r="BK1" t="s">
         <v>116</v>
       </c>
+      <c r="BL1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1176,6 +1206,15 @@
       </c>
       <c r="BK2" s="9" t="s">
         <v>117</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN2" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/main.xlsx
+++ b/main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Documents\GitHub\vkr_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD7373F-55B2-49F4-80C9-34242670FFE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73809D-D907-435D-A9E3-FEAD9A964A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BQ2" sqref="BQ2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Documents\GitHub\vkr_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73809D-D907-435D-A9E3-FEAD9A964A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCE85D-7B3B-4B32-AF87-082CC064082F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>БазаПрактики</t>
   </si>
   <si>
-    <t>ООО "Ромашка"</t>
-  </si>
-  <si>
     <t>ТипПрактики</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>РукВУЗ</t>
   </si>
   <si>
-    <t>РукПрофОрг</t>
-  </si>
-  <si>
     <t>Бикматов К.О</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>ВидПрактика</t>
   </si>
   <si>
-    <t>Должность</t>
-  </si>
-  <si>
     <t>АдрессОрганизации</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>Сидоров Ф. Ф</t>
   </si>
   <si>
-    <t>ФИОРукПрофОрг</t>
-  </si>
-  <si>
     <t>Сидоров Фёдор Фёдорович</t>
   </si>
   <si>
@@ -318,24 +306,15 @@
     <t>ФИОвВП</t>
   </si>
   <si>
-    <t>ФИОРукПрофОргВП</t>
-  </si>
-  <si>
     <t>Сидорова Фёдора Фёдоровича</t>
   </si>
   <si>
     <t>УставПрофОрг</t>
   </si>
   <si>
-    <t>Устав №123</t>
-  </si>
-  <si>
     <t>ДолжностныеИнструкции</t>
   </si>
   <si>
-    <t>Должностная инструкция № 123</t>
-  </si>
-  <si>
     <t>ФактАдрессПрофорг</t>
   </si>
   <si>
@@ -394,6 +373,45 @@
   </si>
   <si>
     <t>Разработка чат-бота для справочной службы вуза</t>
+  </si>
+  <si>
+    <t>РукОТПрофОрг</t>
+  </si>
+  <si>
+    <t>ДолжностьРукОТОрг</t>
+  </si>
+  <si>
+    <t>ФИОРукОТПрофОрг</t>
+  </si>
+  <si>
+    <t>ФИОРукОТПрофОргВП</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Ромашка"</t>
+  </si>
+  <si>
+    <t>РуководительОрг</t>
+  </si>
+  <si>
+    <t>ДолжностьРукОрг</t>
+  </si>
+  <si>
+    <t>Васильев Василий Васильевич</t>
+  </si>
+  <si>
+    <t>РуководительОргВП</t>
+  </si>
+  <si>
+    <t>Васильева Василия Васильевича</t>
+  </si>
+  <si>
+    <t>генерального директора</t>
+  </si>
+  <si>
+    <t>Уставом №123</t>
+  </si>
+  <si>
+    <t>Должностными инструкциями № 123</t>
   </si>
 </sst>
 </file>
@@ -763,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN2"/>
+  <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BD7" sqref="BD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,406 +833,427 @@
     <col min="64" max="64" width="26.85546875" customWidth="1"/>
     <col min="65" max="65" width="18.5703125" customWidth="1"/>
     <col min="66" max="66" width="23" customWidth="1"/>
+    <col min="67" max="67" width="16.42578125" customWidth="1"/>
+    <col min="68" max="68" width="23" customWidth="1"/>
+    <col min="69" max="69" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" ht="110.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" ht="110.25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T2">
         <v>123</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V2">
         <v>16</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="AB2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AM2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" t="s">
         <v>78</v>
       </c>
-      <c r="AO2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AS2" t="s">
         <v>80</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>84</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AU2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="AX2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AY2">
         <v>2025</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BE2">
         <v>79876543210</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="BG2" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="BH2" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="BI2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BN2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BK2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>122</v>
+      <c r="BO2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Documents\GitHub\vkr_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCE85D-7B3B-4B32-AF87-082CC064082F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7916432-C7EB-48A4-9288-1DAE0B5C7317}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Сидорова Фёдора Фёдоровича</t>
   </si>
   <si>
-    <t>УставПрофОрг</t>
-  </si>
-  <si>
     <t>ДолжностныеИнструкции</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t>Разработка чат-бота для справочной службы вуза</t>
   </si>
   <si>
-    <t>РукОТПрофОрг</t>
-  </si>
-  <si>
     <t>ДолжностьРукОТОрг</t>
   </si>
   <si>
@@ -408,10 +402,28 @@
     <t>генерального директора</t>
   </si>
   <si>
-    <t>Уставом №123</t>
-  </si>
-  <si>
     <t>Должностными инструкциями № 123</t>
+  </si>
+  <si>
+    <t>ИнициалыРукОТПрофОрг</t>
+  </si>
+  <si>
+    <t>ИнициалыРукОрг</t>
+  </si>
+  <si>
+    <t>Васильев В.В</t>
+  </si>
+  <si>
+    <t>ДвадняДоПрактикиБуднийДень</t>
+  </si>
+  <si>
+    <t>08.12.2025</t>
+  </si>
+  <si>
+    <t>НомерУставаПрофОрг</t>
+  </si>
+  <si>
+    <t>№123</t>
   </si>
 </sst>
 </file>
@@ -781,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ2"/>
+  <dimension ref="A1:BS2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BD7" sqref="BD7"/>
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +808,7 @@
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
@@ -836,9 +848,11 @@
     <col min="67" max="67" width="16.42578125" customWidth="1"/>
     <col min="68" max="68" width="23" customWidth="1"/>
     <col min="69" max="69" width="18.140625" customWidth="1"/>
+    <col min="70" max="70" width="18.7109375" customWidth="1"/>
+    <col min="71" max="71" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
@@ -888,7 +902,7 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R1" t="s">
         <v>26</v>
@@ -963,7 +977,7 @@
         <v>70</v>
       </c>
       <c r="AP1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>75</v>
@@ -996,60 +1010,66 @@
         <v>92</v>
       </c>
       <c r="BA1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC1" t="s">
         <v>94</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>95</v>
       </c>
-      <c r="BD1" t="s">
-        <v>96</v>
-      </c>
       <c r="BE1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF1" t="s">
         <v>98</v>
       </c>
-      <c r="BF1" t="s">
-        <v>99</v>
-      </c>
       <c r="BG1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BJ1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BK1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BL1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BM1" t="s">
         <v>61</v>
       </c>
       <c r="BN1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BQ1" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:71" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1208,52 +1228,58 @@
         <v>93</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE2">
         <v>79876543210</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BG2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BI2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BL2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BM2" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="BN2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BO2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>126</v>
+      <c r="BQ2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Documents\GitHub\vkr_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7916432-C7EB-48A4-9288-1DAE0B5C7317}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DFEB9A-EF91-472B-A172-48E7F45C6DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -381,21 +381,9 @@
     <t>ФИОРукОТПрофОргВП</t>
   </si>
   <si>
-    <t>Общество с ограниченной ответственностью "Ромашка"</t>
-  </si>
-  <si>
-    <t>РуководительОрг</t>
-  </si>
-  <si>
-    <t>ДолжностьРукОрг</t>
-  </si>
-  <si>
     <t>Васильев Василий Васильевич</t>
   </si>
   <si>
-    <t>РуководительОргВП</t>
-  </si>
-  <si>
     <t>Васильева Василия Васильевича</t>
   </si>
   <si>
@@ -424,6 +412,24 @@
   </si>
   <si>
     <t>№123</t>
+  </si>
+  <si>
+    <t>ВладелецВП</t>
+  </si>
+  <si>
+    <t>Ромашка</t>
+  </si>
+  <si>
+    <t>Владелец</t>
+  </si>
+  <si>
+    <t>ДолжностьВладельцаРП</t>
+  </si>
+  <si>
+    <t>ДолжностьВладельцаИП</t>
+  </si>
+  <si>
+    <t>Генеральный директор</t>
   </si>
 </sst>
 </file>
@@ -793,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS2"/>
+  <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BV4" sqref="BV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,11 +854,12 @@
     <col min="67" max="67" width="16.42578125" customWidth="1"/>
     <col min="68" max="68" width="23" customWidth="1"/>
     <col min="69" max="69" width="18.140625" customWidth="1"/>
-    <col min="70" max="70" width="18.7109375" customWidth="1"/>
-    <col min="71" max="71" width="28" customWidth="1"/>
+    <col min="70" max="70" width="25" customWidth="1"/>
+    <col min="71" max="71" width="31.5703125" customWidth="1"/>
+    <col min="72" max="72" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
@@ -1013,7 +1020,7 @@
         <v>117</v>
       </c>
       <c r="BB1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="BC1" t="s">
         <v>94</v>
@@ -1052,24 +1059,27 @@
         <v>113</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="BQ1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="BR1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="BS1" t="s">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:71" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:72" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1228,10 +1238,10 @@
         <v>93</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="BD2" s="3" t="s">
         <v>96</v>
@@ -1267,19 +1277,22 @@
         <v>114</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="BQ2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
